--- a/Plotting/result_data_long_sensitivity.xlsx
+++ b/Plotting/result_data_long_sensitivity.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S122"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,8 +666,16 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250424000310_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250430095940_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250502103016_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -688,12 +696,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250416111859_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250422094936_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250416163003_2040_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250423111414_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -735,8 +743,12 @@
       <c r="E6" t="n">
         <v>4587367138.32984</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>4049139784.140302</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3327721140.567723</v>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -750,10 +762,10 @@
         <v>3727354786.870285</v>
       </c>
       <c r="N6" t="n">
-        <v>4615028234.258699</v>
+        <v>4541305277.201138</v>
       </c>
       <c r="O6" t="n">
-        <v>3836487862.988746</v>
+        <v>3868823726.752213</v>
       </c>
       <c r="P6" t="n">
         <v>3077429640.583454</v>
@@ -792,10 +804,10 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>357476588.5924096</v>
+        <v>401557655.5075458</v>
       </c>
       <c r="P7" t="n">
-        <v>627457806.134187</v>
+        <v>724124651.1288005</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
@@ -830,13 +842,13 @@
         <v>4404946125.893282</v>
       </c>
       <c r="N8" t="n">
-        <v>4615028234.258699</v>
+        <v>4541305277.201138</v>
       </c>
       <c r="O8" t="n">
-        <v>4193964451.581156</v>
+        <v>4270381382.259759</v>
       </c>
       <c r="P8" t="n">
-        <v>3704887446.717641</v>
+        <v>3801554291.712255</v>
       </c>
       <c r="Q8" t="n">
         <v>4559346150.316367</v>
@@ -866,8 +878,12 @@
       <c r="E9" t="n">
         <v>137621014149.8952</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>121474193524.2091</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99831634217.03168</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -879,7 +895,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>121564035439.6509</v>
+        <v>122116832956.656</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -905,8 +921,12 @@
       <c r="E10" t="n">
         <v>538197.8705110443</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>269098.9352500497</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -920,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>990662.5397707612</v>
+        <v>522587.0159310094</v>
       </c>
       <c r="O10" t="n">
-        <v>495331.2698853891</v>
+        <v>261293.5079654953</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -956,8 +976,12 @@
       <c r="E11" t="n">
         <v>238.288812592869</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>460.3141733916651</v>
+      </c>
+      <c r="G11" t="n">
+        <v>190.6236282411047</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -971,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>140.3268364866654</v>
       </c>
       <c r="O11" t="n">
-        <v>102.0892267372845</v>
+        <v>127.4798781968218</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1007,8 +1031,12 @@
       <c r="E12" t="n">
         <v>29.23521004083904</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>10.1322090332018</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27.9241199823896</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1022,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>28.25175</v>
       </c>
       <c r="O12" t="n">
-        <v>2.323070416647133</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1058,8 +1086,12 @@
       <c r="E13" t="n">
         <v>67.16398217168032</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>139.498984334147</v>
+      </c>
+      <c r="G13" t="n">
+        <v>123.7307539586005</v>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1073,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>156.5006434762958</v>
+        <v>64.27389941323327</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1109,8 +1141,12 @@
       <c r="E14" t="n">
         <v>128.2063417798326</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.1893350699276606</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1124,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>168.4083011321078</v>
+        <v>123.6456494942776</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1160,8 +1196,12 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>160.6497106915023</v>
+      </c>
+      <c r="G15" t="n">
+        <v>220.1407526955816</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1178,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.9532563288951</v>
+        <v>129.1901018304117</v>
       </c>
       <c r="P15" t="n">
         <v>66.1548096177292</v>
@@ -1211,8 +1251,12 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1262,8 +1306,12 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1295,8 +1343,12 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1346,8 +1398,12 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1397,8 +1453,12 @@
       <c r="E20" t="n">
         <v>691.0140131650642</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>733.0000028065033</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1412,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>746.9893594956236</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1448,8 +1508,12 @@
       <c r="E21" t="n">
         <v>841.3010083684129</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>291.5743606676795</v>
+      </c>
+      <c r="G21" t="n">
+        <v>803.5717980543769</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1463,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>813.0000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>66.85094724163417</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1499,8 +1563,12 @@
       <c r="E22" t="n">
         <v>841.3010083694687</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>830.4250482829825</v>
+      </c>
+      <c r="G22" t="n">
+        <v>803.5717980543769</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1550,8 +1618,12 @@
       <c r="E23" t="n">
         <v>338</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>329.6839564601821</v>
+      </c>
+      <c r="G23" t="n">
+        <v>256.6624799493154</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1601,8 +1673,12 @@
       <c r="E24" t="n">
         <v>496.86</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>484.6354159964677</v>
+      </c>
+      <c r="G24" t="n">
+        <v>377.2938455254936</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1616,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>503.7780144019487</v>
+        <v>496.8600000000073</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1652,8 +1728,12 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1667,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>8.405849820107694</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1703,8 +1783,12 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1736,8 +1820,12 @@
       <c r="E27" t="n">
         <v>64.06277066356303</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1751,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>61.42120055432004</v>
+        <v>64.06277066356132</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1787,8 +1875,12 @@
       <c r="E28" t="n">
         <v>218</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>218</v>
+      </c>
+      <c r="G28" t="n">
+        <v>218</v>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1838,8 +1930,12 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1853,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>9.900883180338928</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -1889,8 +1985,12 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>708.082375315772</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1922,8 +2022,12 @@
       <c r="E31" t="n">
         <v>7343.866513873538</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>5487.146677584587</v>
+      </c>
+      <c r="G31" t="n">
+        <v>135.1558200130473</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1937,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5178.39286629042</v>
       </c>
       <c r="O31" t="n">
-        <v>1157.74632454904</v>
+        <v>3938.160733709639</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -1973,8 +2077,12 @@
       <c r="E32" t="n">
         <v>1217.654879968933</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>5736.046894539651</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.419716068277526</v>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1988,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>852.5507511257899</v>
+        <v>1643.288535854057</v>
       </c>
       <c r="O32" t="n">
-        <v>4393.90315791617</v>
+        <v>6414</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2024,8 +2132,12 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>6321.867213510704</v>
+      </c>
+      <c r="G33" t="n">
+        <v>46.19256409056754</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2042,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>920.4424256533281</v>
+        <v>9867.509063017214</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2075,8 +2187,12 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>5348.640535278944</v>
+      </c>
+      <c r="G34" t="n">
+        <v>52.18498562022708</v>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2090,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>6.178879630169831e-11</v>
       </c>
       <c r="O34" t="n">
-        <v>3659.529399162338</v>
+        <v>499.9999999691056</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2126,8 +2242,12 @@
       <c r="E35" t="n">
         <v>128.6391402496316</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001000064455482611</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2141,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>155.8454434599994</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>8463.101335755695</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2177,8 +2297,12 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>2212.394295971364</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16.31437686367281</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2192,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>4.654054919228656e-11</v>
       </c>
       <c r="O36" t="n">
-        <v>2607.71085320931</v>
+        <v>7561.174840250737</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2228,8 +2352,12 @@
       <c r="E37" t="n">
         <v>129.219620461867</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>137.0710005248161</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2243,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>139.6870102256816</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2279,8 +2407,12 @@
       <c r="E38" t="n">
         <v>798.1840621316235</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>715.271710385698</v>
+      </c>
+      <c r="G38" t="n">
+        <v>740.0000028065034</v>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2294,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1231.349731581876</v>
+        <v>844.1115209186039</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2330,8 +2462,12 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2381,8 +2517,12 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2432,8 +2572,12 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2483,8 +2627,12 @@
       <c r="E42" t="n">
         <v>95.16953123774182</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>114</v>
+      </c>
+      <c r="G42" t="n">
+        <v>148</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2498,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>108.7140971097685</v>
+        <v>106.4429100130695</v>
       </c>
       <c r="O42" t="n">
         <v>114</v>
@@ -2534,8 +2682,12 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2585,8 +2737,12 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2636,8 +2792,12 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2687,8 +2847,12 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2738,8 +2902,12 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2789,8 +2957,12 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2840,8 +3012,12 @@
       <c r="E49" t="n">
         <v>338</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>329.6839564601821</v>
+      </c>
+      <c r="G49" t="n">
+        <v>256.6624799493154</v>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2855,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>338</v>
+        <v>338.0000000000049</v>
       </c>
       <c r="O49" t="n">
         <v>338</v>
@@ -2891,8 +3067,12 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2942,8 +3122,12 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2993,8 +3177,12 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3044,8 +3232,12 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3095,8 +3287,12 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3146,8 +3342,12 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3197,8 +3397,12 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3248,8 +3452,12 @@
       <c r="E57" t="n">
         <v>750</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2500</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3263,7 +3471,7 @@
         <v>2500</v>
       </c>
       <c r="N57" t="n">
-        <v>750</v>
+        <v>750.0000000106098</v>
       </c>
       <c r="O57" t="n">
         <v>2000</v>
@@ -3299,8 +3507,12 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3350,8 +3562,12 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3401,8 +3617,12 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3452,8 +3672,12 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3503,8 +3727,12 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3554,8 +3782,12 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3605,8 +3837,12 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3656,8 +3892,12 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3707,8 +3947,12 @@
       <c r="E66" t="n">
         <v>38.84107645263764</v>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>75.03121026285227</v>
+      </c>
+      <c r="G66" t="n">
+        <v>31.07165241610203</v>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3722,10 +3966,10 @@
         <v>1.835839002021546</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>22.87327434732646</v>
       </c>
       <c r="O66" t="n">
-        <v>16.64054395818218</v>
+        <v>43.65249449340842</v>
       </c>
       <c r="P66" t="n">
         <v>43.65249449340842</v>
@@ -3758,8 +4002,12 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3809,8 +4057,12 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3860,8 +4112,12 @@
       <c r="E69" t="n">
         <v>798.1840621316235</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>715.2717103857</v>
+      </c>
+      <c r="G69" t="n">
+        <v>740.0000028065034</v>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3875,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1231.349731581876</v>
+        <v>844.1115209186039</v>
       </c>
       <c r="O69" t="n">
-        <v>1075.331143232522</v>
+        <v>753.9893594956236</v>
       </c>
       <c r="P69" t="n">
         <v>741.358212306585</v>
@@ -3911,8 +4167,12 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3962,8 +4222,12 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3980,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>987.4849576325307</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4013,8 +4277,12 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4064,8 +4332,12 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4115,8 +4387,12 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4166,8 +4442,12 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -4181,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>6.430556858107913e-12</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4217,8 +4497,12 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4268,8 +4552,12 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4319,8 +4607,12 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4370,8 +4662,12 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4421,8 +4717,12 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>24.31730167968465</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4436,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="O80" t="n">
-        <v>7.433825333243567</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4472,8 +4772,12 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4523,8 +4827,12 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4574,8 +4882,12 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -4625,8 +4937,12 @@
       <c r="E84" t="n">
         <v>71.37663579649499</v>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>81.01903231910663</v>
+      </c>
+      <c r="G84" t="n">
+        <v>62.66581675212948</v>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4640,10 +4956,10 @@
         <v>36.34305682853503</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>55.57359588651322</v>
       </c>
       <c r="O84" t="n">
-        <v>18.06170218509334</v>
+        <v>74.56809773783961</v>
       </c>
       <c r="P84" t="n">
         <v>74.56809773783959</v>
@@ -4676,8 +4992,12 @@
       <c r="E85" t="n">
         <v>64.06277066375624</v>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.587730311523985e-06</v>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4691,7 +5011,7 @@
         <v>157</v>
       </c>
       <c r="N85" t="n">
-        <v>61.42120055446183</v>
+        <v>64.06277066375122</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4727,8 +5047,12 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4778,8 +5102,12 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4829,8 +5157,12 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4880,8 +5212,12 @@
       <c r="E89" t="n">
         <v>0</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4931,8 +5267,12 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4949,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>92.682</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -4982,8 +5322,12 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -5033,8 +5377,12 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -5084,8 +5432,12 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -5135,8 +5487,12 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5182,8 +5538,12 @@
         <v>162.7052095992296</v>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>107.1971370697843</v>
+      </c>
+      <c r="G95" t="n">
+        <v>156.5809519717957</v>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -5196,7 +5556,7 @@
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>138.7801907311171</v>
+        <v>111.5971363448497</v>
       </c>
       <c r="P95" t="n">
         <v>39.64678470362504</v>
@@ -5223,8 +5583,12 @@
         <v>0</v>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -5376,11 +5740,9 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>1078</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="n">
         <v>-1.343301136820301e-13</v>
@@ -5411,7 +5773,9 @@
         <v>28.25175</v>
       </c>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="n">
+        <v>28.25175</v>
+      </c>
       <c r="P101" t="n">
         <v>28.25175</v>
       </c>
@@ -5447,7 +5811,7 @@
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="n">
-        <v>156.5006434762958</v>
+        <v>64.27389941323327</v>
       </c>
       <c r="P102" t="n">
         <v>64.27389941323327</v>
@@ -5484,7 +5848,7 @@
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="n">
-        <v>168.4083011321078</v>
+        <v>123.6456494942776</v>
       </c>
       <c r="P103" t="n">
         <v>123.6456494942776</v>
@@ -5520,7 +5884,9 @@
         <v>744.2782040872584</v>
       </c>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
+      <c r="O104" t="n">
+        <v>746.9893594956236</v>
+      </c>
       <c r="P104" t="n">
         <v>746.9893594956236</v>
       </c>
@@ -5555,7 +5921,9 @@
         <v>813</v>
       </c>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+      <c r="O105" t="n">
+        <v>813.0000000000001</v>
+      </c>
       <c r="P105" t="n">
         <v>813.0000000000001</v>
       </c>
@@ -5628,7 +5996,7 @@
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>503.7780144019487</v>
+        <v>496.8600000000073</v>
       </c>
       <c r="P107" t="n">
         <v>496.8600000000073</v>
@@ -5665,7 +6033,7 @@
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="n">
-        <v>61.42120055432004</v>
+        <v>64.06277066356132</v>
       </c>
       <c r="P108" t="n">
         <v>64.06277066356132</v>
@@ -5738,7 +6106,9 @@
         <v>9116.553599999537</v>
       </c>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="O110" t="n">
+        <v>5178.39286629042</v>
+      </c>
       <c r="P110" t="n">
         <v>9116.553600000059</v>
       </c>
@@ -5774,7 +6144,7 @@
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>852.5507511257899</v>
+        <v>1643.288535854057</v>
       </c>
       <c r="P111" t="n">
         <v>8057.288535854057</v>
@@ -5810,7 +6180,9 @@
         <v>147.4280079730779</v>
       </c>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="O112" t="n">
+        <v>139.6870102256816</v>
+      </c>
       <c r="P112" t="n">
         <v>139.6870102256816</v>
       </c>
@@ -5846,7 +6218,7 @@
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>1231.349731581876</v>
+        <v>844.1115209186039</v>
       </c>
       <c r="P113" t="n">
         <v>844.1115209186039</v>
@@ -5880,7 +6252,9 @@
         <v>11.26281596332237</v>
       </c>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
+      <c r="O114" t="n">
+        <v>140.3268364866654</v>
+      </c>
       <c r="P114" t="n">
         <v>267.8067146834873</v>
       </c>
@@ -6010,7 +6384,9 @@
         <v>6647.696152354138</v>
       </c>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="O118" t="n">
+        <v>6.178879630169831e-11</v>
+      </c>
       <c r="P118" t="n">
         <v>499.9999999691674</v>
       </c>
@@ -6041,7 +6417,9 @@
         <v>757.6006701283135</v>
       </c>
       <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
+      <c r="O119" t="n">
+        <v>155.8454434599994</v>
+      </c>
       <c r="P119" t="n">
         <v>8618.946779215694</v>
       </c>
@@ -6074,7 +6452,9 @@
         <v>2633.079064482225</v>
       </c>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="n">
+        <v>4.654054919228656e-11</v>
+      </c>
       <c r="P120" t="n">
         <v>7561.174840250784</v>
       </c>
@@ -6083,60 +6463,6 @@
       <c r="S120" t="n">
         <v>498.5668092198713</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>size_MeOHsynthesis_existing</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="n">
-        <v>8.405849820107694</v>
-      </c>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>size_RWGS_existing</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="n">
-        <v>9.900883180338928</v>
-      </c>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Plotting/result_data_long_sensitivity.xlsx
+++ b/Plotting/result_data_long_sensitivity.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,32 +648,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\MPWemission\20250423105958_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\MPWemission\20250519185153_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\MPWemission\20250423115923_2040_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\MPWemission\20250520022332_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\MPWemission\20250425084741_2050_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\MPWemission\20250522084709_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250424000310_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250528173538_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250430095940_2040_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250529003128_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250502103016_2050_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\OptBIO\20250530080651_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -681,32 +681,24 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250425112720_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250425203413_2040_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250426064638_2050_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250522095417_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250422094936_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250525000900_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250423111414_2040_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250525083318_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250423210349_2050_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250531061128_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -732,43 +724,39 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5031847502.43251</v>
+        <v>5262894758.287867</v>
       </c>
       <c r="C6" t="n">
-        <v>4492564666.632008</v>
+        <v>4323157506.25288</v>
       </c>
       <c r="D6" t="n">
-        <v>4072177371.836663</v>
+        <v>4071035928.062269</v>
       </c>
       <c r="E6" t="n">
-        <v>4587367138.32984</v>
+        <v>4316518064.682264</v>
       </c>
       <c r="F6" t="n">
-        <v>4049139784.140302</v>
+        <v>3503496230.784758</v>
       </c>
       <c r="G6" t="n">
-        <v>3327721140.567723</v>
+        <v>2321130066.491877</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>4977521302.875414</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4175112080.307751</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3727354786.870285</v>
-      </c>
+        <v>5216476760.693393</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>4541305277.201138</v>
+        <v>4265874632.245741</v>
       </c>
       <c r="O6" t="n">
-        <v>3868823726.752213</v>
+        <v>3245775358.565355</v>
       </c>
       <c r="P6" t="n">
-        <v>3077429640.583454</v>
+        <v>1928392205.834014</v>
       </c>
       <c r="Q6" t="n">
         <v>4559346150.316367</v>
@@ -796,18 +784,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>395103618.2763647</v>
-      </c>
-      <c r="M7" t="n">
-        <v>677591339.0229971</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>401557655.5075458</v>
+        <v>393669027.0485265</v>
       </c>
       <c r="P7" t="n">
-        <v>724124651.1288005</v>
+        <v>661317569.6044121</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
@@ -833,22 +817,18 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>4977521302.875414</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4570215698.584116</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4404946125.893282</v>
-      </c>
+        <v>5216476760.693393</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>4541305277.201138</v>
+        <v>4265874632.245741</v>
       </c>
       <c r="O8" t="n">
-        <v>4270381382.259759</v>
+        <v>3639444385.613881</v>
       </c>
       <c r="P8" t="n">
-        <v>3801554291.712255</v>
+        <v>2589709775.438426</v>
       </c>
       <c r="Q8" t="n">
         <v>4559346150.316367</v>
@@ -867,35 +847,33 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150955425072.9753</v>
+        <v>157886842748.636</v>
       </c>
       <c r="C9" t="n">
-        <v>134776939998.9602</v>
+        <v>129694725187.5864</v>
       </c>
       <c r="D9" t="n">
-        <v>122165321155.0999</v>
+        <v>122131077841.8681</v>
       </c>
       <c r="E9" t="n">
-        <v>137621014149.8952</v>
+        <v>129495541940.4679</v>
       </c>
       <c r="F9" t="n">
-        <v>121474193524.2091</v>
+        <v>105104886923.5427</v>
       </c>
       <c r="G9" t="n">
-        <v>99831634217.03168</v>
+        <v>69633901994.75632</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>135575795090.7645</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>122116832956.656</v>
+        <v>101013597662.4952</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -910,19 +888,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2639300.11377096</v>
+        <v>4196792.133010781</v>
       </c>
       <c r="C10" t="n">
-        <v>1319650.05688551</v>
+        <v>2098396.066505366</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>538197.8705110443</v>
+        <v>600747.2345834482</v>
       </c>
       <c r="F10" t="n">
-        <v>269098.9352500497</v>
+        <v>47836.38182089484</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -931,19 +909,15 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2634969.303293843</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1317484.651646939</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
+        <v>4195497.116650711</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>522587.0159310094</v>
+        <v>595460.2652924323</v>
       </c>
       <c r="O10" t="n">
-        <v>261293.5079654953</v>
+        <v>-32737.41303689824</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -965,7 +939,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6466785251090873</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -974,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>238.288812592869</v>
+        <v>2.259076500386786</v>
       </c>
       <c r="F11" t="n">
-        <v>460.3141733916651</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>190.6236282411047</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -988,17 +962,13 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>11.26281596332237</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>140.3268364866654</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>127.4798781968218</v>
+        <v>20.9957162706234</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1020,35 +990,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.78296657890998</v>
+        <v>28.75920499974945</v>
       </c>
       <c r="C12" t="n">
-        <v>4.315452382404974</v>
+        <v>4.330269583646776</v>
       </c>
       <c r="D12" t="n">
-        <v>28.45494383488243</v>
+        <v>27.92410714285973</v>
       </c>
       <c r="E12" t="n">
-        <v>29.23521004083904</v>
+        <v>28.76887630761589</v>
       </c>
       <c r="F12" t="n">
-        <v>10.1322090332018</v>
+        <v>4.329199694820745</v>
       </c>
       <c r="G12" t="n">
-        <v>27.9241199823896</v>
+        <v>27.92410714285806</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>28.25175</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
+        <v>28.25175000000013</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>28.25175</v>
       </c>
@@ -1075,43 +1041,39 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>294.5310110009551</v>
+        <v>293.9374333966661</v>
       </c>
       <c r="C13" t="n">
-        <v>432.0087946747656</v>
+        <v>194.7470569201694</v>
       </c>
       <c r="D13" t="n">
-        <v>252.0047426843083</v>
+        <v>251.889575526374</v>
       </c>
       <c r="E13" t="n">
-        <v>67.16398217168032</v>
+        <v>291.6177051356869</v>
       </c>
       <c r="F13" t="n">
-        <v>139.498984334147</v>
+        <v>246.2746669610517</v>
       </c>
       <c r="G13" t="n">
-        <v>123.7307539586005</v>
+        <v>294.4170274170243</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>293.7316020051335</v>
-      </c>
-      <c r="L13" t="n">
-        <v>89.72119022684257</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+        <v>293.7202478549146</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>64.27389941323327</v>
+        <v>293.3313131313126</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>52.39276771364438</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>97.48130132670009</v>
@@ -1130,19 +1092,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>375.3138373010627</v>
+        <v>368.4733488023719</v>
       </c>
       <c r="C14" t="n">
-        <v>401.5103043245692</v>
+        <v>401.436700596501</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>128.2063417798326</v>
+        <v>368.5193955913643</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1893350699276606</v>
+        <v>401.5101831659977</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1151,16 +1113,12 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>367.0368382608563</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+        <v>360.1334737474549</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>123.6456494942776</v>
+        <v>367.0368382608737</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1188,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>54.01615677986314</v>
+        <v>50.48702059357839</v>
       </c>
       <c r="D15" t="n">
-        <v>112.8502957710671</v>
+        <v>56.6371788697183</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>160.6497106915023</v>
+        <v>48.88695295456088</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1407526955816</v>
+        <v>34.81832506122186</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1208,20 +1166,16 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="n">
-        <v>83.73704305624689</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>129.1901018304117</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>66.1548096177292</v>
+        <v>75.96386450450339</v>
       </c>
       <c r="Q15" t="n">
         <v>30.85490464660982</v>
@@ -1263,12 +1217,8 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>0</v>
       </c>
@@ -1328,7 +1278,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_Electric</t>
+          <t>size_CrackerFurnace_CC</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1352,38 +1302,20 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>size_EDH</t>
+          <t>size_CrackerFurnace_Electric</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1410,12 +1342,8 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -1438,41 +1366,37 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m</t>
+          <t>size_EDH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>760.3016525570567</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>745.1843384731847</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>691.0140131650642</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>733.0000028065033</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>744.2782040872584</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>746.9893594956236</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1481,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>739.7405494940336</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1493,41 +1417,37 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer</t>
+          <t>size_ElectricSMR_m</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>828.2868080261865</v>
+        <v>760.003339904277</v>
       </c>
       <c r="C21" t="n">
-        <v>124.1856800692079</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>803.5792815284814</v>
+        <v>745.2145939664647</v>
       </c>
       <c r="E21" t="n">
-        <v>841.3010083684129</v>
+        <v>758.7728893102544</v>
       </c>
       <c r="F21" t="n">
-        <v>291.5743606676795</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>803.5717980543769</v>
+        <v>731.2995786559892</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>813</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+        <v>746.3469377839192</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>813.0000000000001</v>
+        <v>744.2782040872602</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1536,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>813</v>
+        <v>739.7405494940336</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -1548,41 +1468,37 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch</t>
+          <t>size_HBfeed_mixer</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>828.2868080261865</v>
+        <v>827.6030215766772</v>
       </c>
       <c r="C22" t="n">
-        <v>805.8821196957346</v>
+        <v>124.6120743495475</v>
       </c>
       <c r="D22" t="n">
-        <v>803.5792815284814</v>
+        <v>803.5714285714286</v>
       </c>
       <c r="E22" t="n">
-        <v>841.3010083694687</v>
+        <v>827.8813325935957</v>
       </c>
       <c r="F22" t="n">
-        <v>830.4250482829825</v>
+        <v>124.5812861818621</v>
       </c>
       <c r="G22" t="n">
-        <v>803.5717980543769</v>
+        <v>803.5714285714286</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1591,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -1603,41 +1519,37 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol</t>
+          <t>size_HaberBosch</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>172.4261655881892</v>
+        <v>827.6030215755236</v>
       </c>
       <c r="C23" t="n">
-        <v>25.09559972112957</v>
+        <v>806.7494821982589</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>803.5714285714286</v>
       </c>
       <c r="E23" t="n">
-        <v>338</v>
+        <v>827.8813325935957</v>
       </c>
       <c r="F23" t="n">
-        <v>329.6839564601821</v>
+        <v>805.8945932202512</v>
       </c>
       <c r="G23" t="n">
-        <v>256.6624799493154</v>
+        <v>803.5714285714286</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>172.4261655881865</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1646,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>338.000000000002</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -1658,41 +1570,37 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>size_MTO</t>
+          <t>size_MPW2methanol</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>253.4664634146205</v>
+        <v>172.4261655882085</v>
       </c>
       <c r="C24" t="n">
-        <v>36.89053159006046</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>496.86</v>
+        <v>172.4261655881727</v>
       </c>
       <c r="F24" t="n">
-        <v>484.6354159964677</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>377.2938455254936</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>253.4664634146341</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+        <v>172.4261655881866</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>496.8600000000073</v>
+        <v>172.4261655881867</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1701,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>496.8600000000021</v>
+        <v>338.000000000002</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -1713,7 +1621,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>size_MeOHsynthesis</t>
+          <t>size_MPW2methanol_CC</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1740,12 +1648,8 @@
       <c r="K25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -1756,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.03530198910460498</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -1768,11 +1672,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation</t>
+          <t>size_MTO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>253.4664634146179</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1781,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>253.46646341464</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1792,33 +1696,47 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>253.4664634146343</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>253.4664634146344</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>496.8600000000021</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>size_PDH</t>
+          <t>size_MeOHsynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>139.7919112094286</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>64.06277066356303</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1830,16 +1748,12 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>157</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>64.06277066356132</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1848,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.06277066356211</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -1860,96 +1774,74 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer</t>
+          <t>size_OlefinSeparation</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>218</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>218</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>218</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>size_RWGS</t>
+          <t>size_PDH</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>139.745009273874</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -1958,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>64.06277066356211</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -1970,90 +1862,100 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer</t>
+          <t>size_PE_mixer</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C30" t="n">
-        <v>895.7903280242642</v>
+        <v>218</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="F30" t="n">
-        <v>708.082375315772</v>
+        <v>218</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>218</v>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>218</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>218</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Ammonia</t>
+          <t>size_RWGS</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4817.880715182447</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1182.598827826647</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.2914019829325</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7343.866513873538</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5487.146677584587</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>135.1558200130473</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>2915.429092765422</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6201.124507234116</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>5178.39286629042</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3938.160733709639</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>4513.772281624878</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4602.781318375011</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -2062,163 +1964,123 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Battery</t>
+          <t>size_SteamReformer</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1222.381690201081</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4508.435984544823</v>
+        <v>896.3720107196912</v>
       </c>
       <c r="D32" t="n">
-        <v>2.520440752848239</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1217.654879968933</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5736.046894539651</v>
+        <v>895.2868686444009</v>
       </c>
       <c r="G32" t="n">
-        <v>1.419716068277526</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1520.254729930331</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6414</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1643.288535854057</v>
-      </c>
-      <c r="O32" t="n">
-        <v>6414</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1639.567763763904</v>
-      </c>
-      <c r="R32" t="n">
-        <v>6414</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2</t>
+          <t>size_SteamReformer_CC</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>190.6331264427883</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>290.1275136032193</v>
+        <v>0.8120060560643975</v>
       </c>
       <c r="D33" t="n">
-        <v>1008.376326511542</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6321.867213510704</v>
+        <v>0.7702794685429876</v>
       </c>
       <c r="G33" t="n">
-        <v>46.19256409056754</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4478.894916678008</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>9867.509063017214</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2135.750681559551</v>
-      </c>
-      <c r="R33" t="n">
-        <v>7669.396390915253</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Ethylene</t>
+          <t>size_Storage_Ammonia</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>4686.394839991466</v>
       </c>
       <c r="C34" t="n">
-        <v>499.8004327230292</v>
+        <v>1661.426597463888</v>
       </c>
       <c r="D34" t="n">
-        <v>8.485792251991569</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4737.584051946526</v>
       </c>
       <c r="F34" t="n">
-        <v>5348.640535278944</v>
+        <v>1188.614424459619</v>
       </c>
       <c r="G34" t="n">
-        <v>52.18498562022708</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>6647.696152354138</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
+        <v>5044.623109964454</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>6.178879630169831e-11</v>
+        <v>3656.881691911162</v>
       </c>
       <c r="O34" t="n">
-        <v>499.9999999691056</v>
+        <v>5433.115081792532</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.30420139502345e-10</v>
+        <v>4513.772281624878</v>
       </c>
       <c r="R34" t="n">
-        <v>5336.698862648049</v>
+        <v>4602.781318375011</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -2227,53 +2089,49 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_H2</t>
+          <t>size_Storage_Battery</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>443.2296899240952</v>
+        <v>1240.365784392106</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4957.619857781831</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001022562888105922</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>128.6391402496316</v>
+        <v>1240.044148692911</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5423.945035225384</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001000064455482611</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>757.6006701283135</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
+        <v>1404.417865593718</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>155.8454434599994</v>
+        <v>1432.828894956167</v>
       </c>
       <c r="O35" t="n">
-        <v>8463.101335755695</v>
+        <v>6414</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>270.0426815626308</v>
+        <v>1639.567763763904</v>
       </c>
       <c r="R35" t="n">
-        <v>8471.55242708012</v>
+        <v>6414</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -2282,53 +2140,49 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Propylene</t>
+          <t>size_Storage_CO2</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>6961.732359020551</v>
+        <v>1810.694852925571</v>
       </c>
       <c r="D36" t="n">
-        <v>10.56364681265192</v>
+        <v>1.217208847492657e-06</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2212.394295971364</v>
+        <v>1887.75031176355</v>
       </c>
       <c r="G36" t="n">
-        <v>16.31437686367281</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2633.079064482225</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
+        <v>186.6364645974312</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>4.654054919228656e-11</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7561.174840250737</v>
+        <v>117.8412708295277</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>150.0338403346369</v>
       </c>
       <c r="Q36" t="n">
-        <v>-4.145765562074552e-10</v>
+        <v>2135.750681559551</v>
       </c>
       <c r="R36" t="n">
-        <v>498.5668092198713</v>
+        <v>7669.396390915253</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -2337,53 +2191,49 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>size_WGS_m</t>
+          <t>size_Storage_Ethylene</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.1764090281971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>11418.76225825217</v>
       </c>
       <c r="D37" t="n">
-        <v>139.3494712944855</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.219620461867</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7732.644371758823</v>
       </c>
       <c r="G37" t="n">
-        <v>137.0710005248161</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>139.1800241643173</v>
-      </c>
-      <c r="L37" t="n">
-        <v>8.247983808760543</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>139.6870102256816</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>477.4933451386743</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.3314827553843</v>
+        <v>-1.30420139502345e-10</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5336.698862648049</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -2392,53 +2242,49 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer</t>
+          <t>size_Storage_H2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1088.583872824605</v>
+        <v>69.73640287790427</v>
       </c>
       <c r="C38" t="n">
-        <v>1304.300632348833</v>
+        <v>1.671429227710533</v>
       </c>
       <c r="D38" t="n">
-        <v>752.1843384731844</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>798.1840621316235</v>
+        <v>69.39458858069054</v>
       </c>
       <c r="F38" t="n">
-        <v>715.271710385698</v>
+        <v>-5.297826342537096e-11</v>
       </c>
       <c r="G38" t="n">
-        <v>740.0000028065034</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>1066.928204087258</v>
-      </c>
-      <c r="L38" t="n">
-        <v>51.38683826085708</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
+        <v>888.2974240771143</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>844.1115209186039</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>694.8902024726615</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>845.1149737344946</v>
+        <v>270.0426815626308</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8471.55242708012</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -2447,14 +2293,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>size_naphtha_mixer</t>
+          <t>size_Storage_Propylene</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2463,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>984.5666263174426</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2474,26 +2320,22 @@
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>7147.624402790782</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>-4.145765562074552e-10</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>498.5668092198713</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -2502,50 +2344,46 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>size_syngas_mixer</t>
+          <t>size_WGS_m</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>142.1206245620998</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.3551290717289</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.8905303010839</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.75302120867</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
+        <v>139.5668773655919</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>139.1800241643176</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>7.509193214636699</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>138.3314827553843</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -2557,50 +2395,46 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>CO2/import_max</t>
+          <t>size_feedgas_mixer</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1089.485084978785</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1304.808711316192</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>752.2145939664645</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1083.304705068695</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1303.797051810398</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>738.299578656593</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
+        <v>1075.826254019793</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1066.928204087278</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.6708666579442024</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>845.1149737344946</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -2612,62 +2446,58 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>CO2/export_max</t>
+          <t>size_naphtha_mixer</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>56.22446675599849</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>95.16953123774182</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>105.8968860251274</v>
-      </c>
-      <c r="L42" t="n">
-        <v>114</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>106.4429100130695</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/import_max</t>
+          <t>size_syngas_mixer</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2677,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>112.6382815088393</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2694,12 +2524,8 @@
       <c r="K43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>59.22138137507119</v>
-      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -2713,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -2722,7 +2548,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/export_max</t>
+          <t>CO2/import_max</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2749,12 +2575,8 @@
       <c r="K44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
         <v>0</v>
       </c>
@@ -2777,23 +2599,23 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/import_max</t>
+          <t>CO2/export_max</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>109.0639126540437</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>93.96640518080665</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.18253514836007e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>108.8161011342673</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>93.87417777123773</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2802,37 +2624,33 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>105.8968860251569</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>108.4606122400019</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/export_max</t>
+          <t>CO2_DAC/import_max</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2842,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>56.63717887189313</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2851,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>34.81832506362986</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2859,12 +2677,8 @@
       <c r="K46" t="n">
         <v>0</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -2872,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>75.96386450450339</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -2887,7 +2701,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/import_max</t>
+          <t>CO2_DAC/export_max</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2914,12 +2728,8 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>0</v>
       </c>
@@ -2942,7 +2752,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/export_max</t>
+          <t>CO2captured/import_max</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2969,12 +2779,8 @@
       <c r="K48" t="n">
         <v>0</v>
       </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>0</v>
       </c>
@@ -2997,62 +2803,58 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MPW/import_max</t>
+          <t>CO2captured/export_max</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>172.4261655885255</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>25.09559972112957</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>329.6839564601821</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>256.6624799493154</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>172.42616558842</v>
-      </c>
-      <c r="L49" t="n">
-        <v>68.9704662352746</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>338.0000000000049</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>338.000000000002</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>338.000000000002</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>MPW/export_max</t>
+          <t>HBfeed/import_max</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3079,12 +2881,8 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>0</v>
       </c>
@@ -3107,7 +2905,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/import_max</t>
+          <t>HBfeed/export_max</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3134,12 +2932,8 @@
       <c r="K51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>0</v>
       </c>
@@ -3162,11 +2956,11 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/export_max</t>
+          <t>MPW/import_max</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>172.4261655997611</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -3175,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>172.4261655885261</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3187,37 +2981,33 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
+        <v>172.4261655884114</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>172.4261655882828</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>172.4261655881867</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>338.000000000002</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>338.000000000002</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>ammonia/import_max</t>
+          <t>MPW/export_max</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3244,12 +3034,8 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>0</v>
       </c>
@@ -3272,7 +3058,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>ammonia/export_max</t>
+          <t>PE_olefin/import_max</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3299,12 +3085,8 @@
       <c r="K54" t="n">
         <v>0</v>
       </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
         <v>0</v>
       </c>
@@ -3327,7 +3109,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>crackergas/import_max</t>
+          <t>PE_olefin/export_max</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3354,12 +3136,8 @@
       <c r="K55" t="n">
         <v>0</v>
       </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
         <v>0</v>
       </c>
@@ -3382,7 +3160,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>crackergas/export_max</t>
+          <t>ammonia/import_max</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3409,12 +3187,8 @@
       <c r="K56" t="n">
         <v>0</v>
       </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>0</v>
       </c>
@@ -3437,62 +3211,58 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>electricity/import_max</t>
+          <t>ammonia/export_max</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>750</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>750.0000000106098</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>750.000000000004</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>2000.000000000002</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>electricity/export_max</t>
+          <t>crackergas/import_max</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3519,12 +3289,8 @@
       <c r="K58" t="n">
         <v>0</v>
       </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
         <v>0</v>
       </c>
@@ -3547,7 +3313,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ethanol/import_max</t>
+          <t>crackergas/export_max</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3574,12 +3340,8 @@
       <c r="K59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>0</v>
       </c>
@@ -3602,62 +3364,58 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ethanol/export_max</t>
+          <t>electricity/import_max</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>2500.000000117741</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2000.000000000324</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2259.261963825666</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>750.000000000004</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>2000.000000000002</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ethylene/import_max</t>
+          <t>electricity/export_max</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3684,12 +3442,8 @@
       <c r="K61" t="n">
         <v>0</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
         <v>0</v>
       </c>
@@ -3712,7 +3466,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>ethylene/export_max</t>
+          <t>ethanol/import_max</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3739,12 +3493,8 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
         <v>0</v>
       </c>
@@ -3767,7 +3517,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>feedgas/import_max</t>
+          <t>ethanol/export_max</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3794,12 +3544,8 @@
       <c r="K63" t="n">
         <v>0</v>
       </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
         <v>0</v>
       </c>
@@ -3822,7 +3568,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>feedgas/export_max</t>
+          <t>ethylene/import_max</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3849,12 +3595,8 @@
       <c r="K64" t="n">
         <v>0</v>
       </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
         <v>0</v>
       </c>
@@ -3877,7 +3619,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>heatlowT/import_max</t>
+          <t>ethylene/export_max</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3904,12 +3646,8 @@
       <c r="K65" t="n">
         <v>0</v>
       </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>0</v>
       </c>
@@ -3932,11 +3670,11 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>heatlowT/export_max</t>
+          <t>feedgas/import_max</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1054085996270245</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -3945,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>38.84107645263764</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>75.03121026285227</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>31.07165241610203</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -3959,35 +3697,31 @@
       <c r="K66" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="n">
-        <v>1.835839002021551</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.835839002021546</v>
-      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>22.87327434732646</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>43.65249449340842</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>43.65249449340842</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>31.44429636269888</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>43.72863298421989</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>43.72863298421987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/import_max</t>
+          <t>feedgas/export_max</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4014,12 +3748,8 @@
       <c r="K67" t="n">
         <v>0</v>
       </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>0</v>
       </c>
@@ -4042,7 +3772,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/export_max</t>
+          <t>heatlowT/import_max</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4069,12 +3799,8 @@
       <c r="K68" t="n">
         <v>0</v>
       </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>0</v>
       </c>
@@ -4097,62 +3823,58 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>methane/import_max</t>
+          <t>heatlowT/export_max</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1088.583872824605</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>902.8075479223694</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>584.5566559801563</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>798.1840621316235</v>
+        <v>0.3682294695630461</v>
       </c>
       <c r="F69" t="n">
-        <v>715.2717103857</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>740.0000028065034</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>1066.928204087742</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1118.315042348115</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>844.1115209186039</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>753.9893594956236</v>
+        <v>3.422301752111614</v>
       </c>
       <c r="P69" t="n">
-        <v>741.358212306585</v>
+        <v>0.6844603504223223</v>
       </c>
       <c r="Q69" t="n">
-        <v>845.1149737344946</v>
+        <v>31.44429636269888</v>
       </c>
       <c r="R69" t="n">
-        <v>746.7405494940336</v>
+        <v>43.72863298421989</v>
       </c>
       <c r="S69" t="n">
-        <v>746.7405494940336</v>
+        <v>43.72863298421987</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>methane/export_max</t>
+          <t>hydrogen/import_max</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -4179,12 +3901,8 @@
       <c r="K70" t="n">
         <v>0</v>
       </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
         <v>0</v>
       </c>
@@ -4207,17 +3925,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/import_max</t>
+          <t>hydrogen/export_max</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1304.300632348833</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>752.1843384732549</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -4234,12 +3952,8 @@
       <c r="K71" t="n">
         <v>0</v>
       </c>
-      <c r="L71" t="n">
-        <v>751.2782040872584</v>
-      </c>
-      <c r="M71" t="n">
-        <v>751.2782040872584</v>
-      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
         <v>0</v>
       </c>
@@ -4262,20 +3976,20 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/export_max</t>
+          <t>methane/import_max</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1089.485084978785</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1304.808711316192</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1083.304705068695</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -4287,16 +4001,12 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
+        <v>1075.826254019793</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1066.928204087566</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4305,19 +4015,19 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>845.1149737344946</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>746.7405494940336</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>746.7405494940336</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>methanol/import_max</t>
+          <t>methane/export_max</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4344,12 +4054,8 @@
       <c r="K73" t="n">
         <v>0</v>
       </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
         <v>0</v>
       </c>
@@ -4372,7 +4078,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>methanol/export_max</t>
+          <t>methane_bio/import_max</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -4382,16 +4088,16 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>752.2145939664647</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1303.797051810773</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>738.299578657107</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -4399,20 +4105,16 @@
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1066.928204087267</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1067.599070745222</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -4427,7 +4129,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>naphtha/import_max</t>
+          <t>methane_bio/export_max</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -4454,14 +4156,10 @@
       <c r="K75" t="n">
         <v>0</v>
       </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>6.430556858107913e-12</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4482,7 +4180,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>naphtha/export_max</t>
+          <t>methanol/import_max</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -4509,12 +4207,8 @@
       <c r="K76" t="n">
         <v>0</v>
       </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
         <v>0</v>
       </c>
@@ -4537,7 +4231,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/import_max</t>
+          <t>methanol/export_max</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4564,12 +4258,8 @@
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>0</v>
       </c>
@@ -4592,7 +4282,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/export_max</t>
+          <t>naphtha/import_max</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4619,12 +4309,8 @@
       <c r="K78" t="n">
         <v>0</v>
       </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
         <v>0</v>
       </c>
@@ -4647,7 +4333,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/import_max</t>
+          <t>naphtha/export_max</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4674,12 +4360,8 @@
       <c r="K79" t="n">
         <v>0</v>
       </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
         <v>0</v>
       </c>
@@ -4702,7 +4384,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/export_max</t>
+          <t>naphtha_bio/import_max</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4718,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>24.31730167968465</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -4729,14 +4411,10 @@
       <c r="K80" t="n">
         <v>0</v>
       </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4745,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -4757,7 +4435,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>olefins/import_max</t>
+          <t>naphtha_bio/export_max</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4784,12 +4462,8 @@
       <c r="K81" t="n">
         <v>0</v>
       </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
         <v>0</v>
       </c>
@@ -4812,7 +4486,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>olefins/export_max</t>
+          <t>nitrogen/import_max</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4839,12 +4513,8 @@
       <c r="K82" t="n">
         <v>0</v>
       </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
         <v>0</v>
       </c>
@@ -4867,7 +4537,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>oxygen/import_max</t>
+          <t>nitrogen/export_max</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -4883,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4894,12 +4564,8 @@
       <c r="K83" t="n">
         <v>0</v>
       </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
         <v>0</v>
       </c>
@@ -4910,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -4922,96 +4588,88 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>oxygen/export_max</t>
+          <t>olefins/import_max</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>35.4130550925951</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>5.295060073249214</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>34.26321430066513</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>71.37663579649499</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>81.01903231910663</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>62.66581675212948</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>34.66489725000802</v>
-      </c>
-      <c r="L84" t="n">
-        <v>36.34305682853504</v>
-      </c>
-      <c r="M84" t="n">
-        <v>36.34305682853503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>55.57359588651322</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>74.56809773783961</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>74.56809773783959</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>63.40845650179223</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>74.63769672637277</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>74.63769672637278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>propane/import_max</t>
+          <t>olefins/export_max</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>139.7919112094286</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>64.06277066375624</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1.587730311523985e-06</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>157</v>
-      </c>
-      <c r="L85" t="n">
-        <v>157</v>
-      </c>
-      <c r="M85" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>64.06277066375122</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -5020,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>64.0627706654365</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -5032,7 +4690,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>propane/export_max</t>
+          <t>oxygen/import_max</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -5059,12 +4717,8 @@
       <c r="K86" t="n">
         <v>0</v>
       </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
         <v>0</v>
       </c>
@@ -5087,105 +4741,97 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>propylene/import_max</t>
+          <t>oxygen/export_max</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>35.28754453519473</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>5.313240779134595</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>34.26287946428889</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>35.63601362803669</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>5.311928025554322</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>34.26287946433737</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
+        <v>34.66489725000024</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>34.66489725003473</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>37.7932589743229</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>35.29056959486458</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>63.40845650179223</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>74.63769672637277</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>74.63769672637278</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>propylene/export_max</t>
+          <t>propane/import_max</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>139.7450092738777</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>64.0627706654365</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -5197,7 +4843,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>steam/import_max</t>
+          <t>propane/export_max</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -5224,12 +4870,8 @@
       <c r="K89" t="n">
         <v>0</v>
       </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
         <v>0</v>
       </c>
@@ -5252,7 +4894,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>steam/export_max</t>
+          <t>propylene/import_max</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -5279,17 +4921,13 @@
       <c r="K90" t="n">
         <v>0</v>
       </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0</v>
-      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>92.682</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5298,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>83.07456133439007</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -5307,7 +4945,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>syngas/import_max</t>
+          <t>propylene/export_max</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -5334,12 +4972,8 @@
       <c r="K91" t="n">
         <v>0</v>
       </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
         <v>0</v>
       </c>
@@ -5362,7 +4996,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>syngas/export_max</t>
+          <t>steam/import_max</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -5389,12 +5023,8 @@
       <c r="K92" t="n">
         <v>0</v>
       </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
         <v>0</v>
       </c>
@@ -5417,7 +5047,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/import_max</t>
+          <t>steam/export_max</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -5444,12 +5074,8 @@
       <c r="K93" t="n">
         <v>0</v>
       </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
         <v>0</v>
       </c>
@@ -5463,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>83.07456133439007</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -5472,7 +5098,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/export_max</t>
+          <t>syngas/import_max</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -5499,12 +5125,8 @@
       <c r="K94" t="n">
         <v>0</v>
       </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
         <v>0</v>
       </c>
@@ -5527,62 +5149,72 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
+          <t>syngas/export_max</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
       <c r="C95" t="n">
-        <v>123.8778983819477</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>162.7052095992296</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
       <c r="F95" t="n">
-        <v>107.1971370697843</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>156.5809519717957</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>100.831146509253</v>
-      </c>
-      <c r="M95" t="n">
-        <v>60.01061928651289</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
       <c r="O95" t="n">
-        <v>111.5971363448497</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>39.64678470362504</v>
-      </c>
-      <c r="Q95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
       <c r="R95" t="n">
-        <v>111.6469841152122</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>39.57950136806033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>size_DirectMeOHsynthesis</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>syngas_r/import_max</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
@@ -5592,21 +5224,23 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
       <c r="O96" t="n">
         <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
       <c r="R96" t="n">
         <v>0</v>
       </c>
@@ -5617,15 +5251,27 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+          <t>syngas_r/export_max</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5637,92 +5283,108 @@
       <c r="N97" t="n">
         <v>0</v>
       </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch_existing</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>146.2157888987322</v>
+      </c>
+      <c r="D98" t="n">
+        <v>162.7226528799703</v>
+      </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>144.6992727296632</v>
+      </c>
+      <c r="G98" t="n">
+        <v>138.1013289036543</v>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>813</v>
-      </c>
-      <c r="L98" t="n">
-        <v>813</v>
-      </c>
-      <c r="M98" t="n">
-        <v>813</v>
-      </c>
-      <c r="N98" t="n">
-        <v>813</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="O98" t="n">
-        <v>813</v>
+        <v>103.3331598099383</v>
       </c>
       <c r="P98" t="n">
-        <v>813</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>813</v>
-      </c>
+        <v>38.58608326683546</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>813</v>
+        <v>111.6469841152122</v>
       </c>
       <c r="S98" t="n">
-        <v>813</v>
+        <v>39.57950136806033</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation_existing</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing</t>
+          <t>size_CrackerFurnace_existing</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -5745,7 +5407,7 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="n">
-        <v>-1.343301136820301e-13</v>
+        <v>0</v>
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
@@ -5753,7 +5415,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>size_ASU_existing</t>
+          <t>size_CrackerFurnace_existing_CC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -5765,32 +5427,26 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>28.25175</v>
-      </c>
-      <c r="M101" t="n">
-        <v>28.25175</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="n">
-        <v>28.25175</v>
-      </c>
-      <c r="P101" t="n">
-        <v>28.25175</v>
-      </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="n">
-        <v>28.25175</v>
-      </c>
-      <c r="S101" t="n">
-        <v>28.25175</v>
-      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El_existing</t>
+          <t>size_HaberBosch_existing</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -5802,32 +5458,34 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>293.7316020051335</v>
-      </c>
-      <c r="M102" t="n">
-        <v>383.4527922319761</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>813</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>813</v>
+      </c>
       <c r="O102" t="n">
-        <v>64.27389941323327</v>
+        <v>813</v>
       </c>
       <c r="P102" t="n">
-        <v>64.27389941323327</v>
-      </c>
-      <c r="Q102" t="inlineStr"/>
+        <v>813</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>813</v>
+      </c>
       <c r="R102" t="n">
-        <v>97.48130132670009</v>
+        <v>813</v>
       </c>
       <c r="S102" t="n">
-        <v>97.48130132670009</v>
+        <v>813</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG_existing</t>
+          <t>size_OlefinSeparation_existing</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -5839,32 +5497,26 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>367.0368382608563</v>
-      </c>
-      <c r="M103" t="n">
-        <v>367.0368382608563</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="n">
-        <v>123.6456494942776</v>
-      </c>
-      <c r="P103" t="n">
-        <v>123.6456494942776</v>
-      </c>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="n">
-        <v>122.1120081478671</v>
-      </c>
-      <c r="S103" t="n">
-        <v>122.1120081478671</v>
-      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m_existing</t>
+          <t>size_SteamReformer_existing</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -5876,32 +5528,26 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>744.2782040872584</v>
-      </c>
-      <c r="M104" t="n">
-        <v>744.2782040872584</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="n">
-        <v>746.9893594956236</v>
-      </c>
-      <c r="P104" t="n">
-        <v>746.9893594956236</v>
-      </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="n">
-        <v>739.7405494940336</v>
-      </c>
-      <c r="S104" t="n">
-        <v>739.7405494940336</v>
-      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="n">
+        <v>-1.343301136820301e-13</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer_existing</t>
+          <t>size_SteamReformer_existing_CC</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -5913,32 +5559,26 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>813</v>
-      </c>
-      <c r="M105" t="n">
-        <v>813</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="n">
-        <v>813.0000000000001</v>
-      </c>
-      <c r="P105" t="n">
-        <v>813.0000000000001</v>
-      </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="n">
-        <v>813</v>
-      </c>
-      <c r="S105" t="n">
-        <v>813</v>
-      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol_existing</t>
+          <t>size_ASU_existing</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -5951,31 +5591,27 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>172.4261655881865</v>
-      </c>
-      <c r="M106" t="n">
-        <v>172.4261655881865</v>
-      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
-        <v>338</v>
+        <v>28.25175</v>
       </c>
       <c r="P106" t="n">
-        <v>338</v>
+        <v>28.25175</v>
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>338.000000000002</v>
+        <v>28.25175</v>
       </c>
       <c r="S106" t="n">
-        <v>338.000000000002</v>
+        <v>28.25175</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>size_MTO_existing</t>
+          <t>size_Boiler_El_existing</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -5988,31 +5624,27 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>253.4664634146341</v>
-      </c>
-      <c r="M107" t="n">
-        <v>253.4664634146341</v>
-      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>496.8600000000073</v>
+        <v>293.3313131313126</v>
       </c>
       <c r="P107" t="n">
-        <v>496.8600000000073</v>
+        <v>293.3313131313126</v>
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>496.8600000000021</v>
+        <v>97.48130132670009</v>
       </c>
       <c r="S107" t="n">
-        <v>496.8600000000021</v>
+        <v>97.48130132670009</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>size_PDH_existing</t>
+          <t>size_Boiler_Industrial_NG_existing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -6025,31 +5657,27 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>157</v>
-      </c>
-      <c r="M108" t="n">
-        <v>157</v>
-      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="n">
-        <v>64.06277066356132</v>
+        <v>367.0368382608737</v>
       </c>
       <c r="P108" t="n">
-        <v>64.06277066356132</v>
+        <v>367.0368382608737</v>
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="n">
-        <v>64.06277066356211</v>
+        <v>122.1120081478671</v>
       </c>
       <c r="S108" t="n">
-        <v>64.06277066356211</v>
+        <v>122.1120081478671</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer_existing</t>
+          <t>size_ElectricSMR_m_existing</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -6062,31 +5690,27 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>218</v>
-      </c>
-      <c r="M109" t="n">
-        <v>218</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>218</v>
+        <v>744.2782040872602</v>
       </c>
       <c r="P109" t="n">
-        <v>218</v>
+        <v>744.2782040872602</v>
       </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="n">
-        <v>218</v>
+        <v>739.7405494940336</v>
       </c>
       <c r="S109" t="n">
-        <v>218</v>
+        <v>739.7405494940336</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Ammonia_existing</t>
+          <t>size_HBfeed_mixer_existing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -6099,31 +5723,27 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>2915.429092765422</v>
-      </c>
-      <c r="M110" t="n">
-        <v>9116.553599999537</v>
-      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
-        <v>5178.39286629042</v>
+        <v>813</v>
       </c>
       <c r="P110" t="n">
-        <v>9116.553600000059</v>
+        <v>813</v>
       </c>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="n">
-        <v>4513.772281624878</v>
+        <v>813</v>
       </c>
       <c r="S110" t="n">
-        <v>9116.55359999989</v>
+        <v>813</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Battery_existing</t>
+          <t>size_MPW2methanol_existing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -6136,31 +5756,27 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1520.254729930331</v>
-      </c>
-      <c r="M111" t="n">
-        <v>7934.254729930331</v>
-      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>1643.288535854057</v>
+        <v>172.4261655881867</v>
       </c>
       <c r="P111" t="n">
-        <v>8057.288535854057</v>
+        <v>172.4261655881867</v>
       </c>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="n">
-        <v>1639.567763763904</v>
+        <v>338.000000000002</v>
       </c>
       <c r="S111" t="n">
-        <v>8053.567763763904</v>
+        <v>338.000000000002</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>size_WGS_m_existing</t>
+          <t>size_MPW2methanol_existing_CC</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -6173,31 +5789,27 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>139.1800241643173</v>
-      </c>
-      <c r="M112" t="n">
-        <v>147.4280079730779</v>
-      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
-        <v>139.6870102256816</v>
+        <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>139.6870102256816</v>
+        <v>0</v>
       </c>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="n">
-        <v>138.3314827553843</v>
+        <v>0.286640155536481</v>
       </c>
       <c r="S112" t="n">
-        <v>138.3314827553843</v>
+        <v>0.5364496303699052</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer_existing</t>
+          <t>size_MTO_existing</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -6210,31 +5822,27 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1066.928204087258</v>
-      </c>
-      <c r="M113" t="n">
-        <v>1118.315042348115</v>
-      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>844.1115209186039</v>
+        <v>253.4664634146344</v>
       </c>
       <c r="P113" t="n">
-        <v>844.1115209186039</v>
+        <v>253.4664634146344</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>845.1149737344946</v>
+        <v>496.8600000000021</v>
       </c>
       <c r="S113" t="n">
-        <v>845.1149737344946</v>
+        <v>496.8600000000021</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>size_AEC_existing</t>
+          <t>size_PDH_existing</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -6248,28 +5856,26 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>11.26281596332237</v>
-      </c>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
-        <v>140.3268364866654</v>
+        <v>157</v>
       </c>
       <c r="P114" t="n">
-        <v>267.8067146834873</v>
+        <v>157</v>
       </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>192.9097936337152</v>
+        <v>64.06277066356211</v>
       </c>
       <c r="S114" t="n">
-        <v>268.273821989079</v>
+        <v>64.06277066356211</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer_existing</t>
+          <t>size_PE_mixer_existing</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -6283,26 +5889,26 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>83.73704305624689</v>
-      </c>
+      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
+      <c r="O115" t="n">
+        <v>218</v>
+      </c>
       <c r="P115" t="n">
-        <v>129.1901018304117</v>
+        <v>218</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>30.85490464660982</v>
+        <v>218</v>
       </c>
       <c r="S115" t="n">
-        <v>129.5523320883239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis_existing</t>
+          <t>size_Storage_Ammonia_existing</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -6316,24 +5922,26 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>100.831146509253</v>
-      </c>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="O116" t="n">
+        <v>3656.881691911162</v>
+      </c>
       <c r="P116" t="n">
-        <v>111.5971363448497</v>
+        <v>9089.996773703693</v>
       </c>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>4513.772281624878</v>
+      </c>
       <c r="S116" t="n">
-        <v>111.6469841152122</v>
+        <v>9116.55359999989</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2_existing</t>
+          <t>size_Storage_Battery_existing</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -6347,26 +5955,26 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>4478.894916678008</v>
-      </c>
+      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
+      <c r="O117" t="n">
+        <v>1432.828894956167</v>
+      </c>
       <c r="P117" t="n">
-        <v>9867.509063017214</v>
+        <v>7846.828894956167</v>
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="n">
-        <v>2135.750681559551</v>
+        <v>1639.567763763904</v>
       </c>
       <c r="S117" t="n">
-        <v>9805.147072474803</v>
+        <v>8053.567763763904</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Ethylene_existing</t>
+          <t>size_WGS_m_existing</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -6380,26 +5988,26 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>6647.696152354138</v>
-      </c>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="n">
-        <v>6.178879630169831e-11</v>
+        <v>139.1800241643176</v>
       </c>
       <c r="P118" t="n">
-        <v>499.9999999691674</v>
+        <v>146.6892173789543</v>
       </c>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>138.3314827553843</v>
+      </c>
       <c r="S118" t="n">
-        <v>5336.698862648049</v>
+        <v>138.3314827553843</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_H2_existing</t>
+          <t>size_feedgas_mixer_existing</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -6413,28 +6021,26 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>757.6006701283135</v>
-      </c>
+      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
-        <v>155.8454434599994</v>
+        <v>1066.928204087278</v>
       </c>
       <c r="P119" t="n">
-        <v>8618.946779215694</v>
+        <v>1066.928204087278</v>
       </c>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="n">
-        <v>270.0426815626308</v>
+        <v>845.1149737344946</v>
       </c>
       <c r="S119" t="n">
-        <v>8741.59510864275</v>
+        <v>845.1149737344946</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Propylene_existing</t>
+          <t>size_AEC_existing</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -6448,20 +6054,196 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>2633.079064482225</v>
-      </c>
+      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="n">
-        <v>4.654054919228656e-11</v>
-      </c>
+      <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
-        <v>7561.174840250784</v>
+        <v>20.9957162706234</v>
       </c>
       <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>192.9097936337152</v>
+      </c>
       <c r="S120" t="n">
+        <v>268.273821989079</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2electrolysis_existing</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="n">
+        <v>103.3331598099383</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>111.6469841152122</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_CO2_existing</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="n">
+        <v>117.8412708295277</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>2135.750681559551</v>
+      </c>
+      <c r="S122" t="n">
+        <v>9805.147072474803</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Ethylene_existing</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="n">
+        <v>477.4933451386743</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>5336.698862648049</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_H2_existing</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="n">
+        <v>694.8902024726615</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>270.0426815626308</v>
+      </c>
+      <c r="S124" t="n">
+        <v>8741.59510864275</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Propylene_existing</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="n">
+        <v>7147.624402790782</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
         <v>498.5668092198713</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>30.85490464660982</v>
+      </c>
+      <c r="S126" t="n">
+        <v>129.5523320883239</v>
       </c>
     </row>
   </sheetData>

--- a/Plotting/result_data_long_sensitivity.xlsx
+++ b/Plotting/result_data_long_sensitivity.xlsx
@@ -681,11 +681,19 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250522095417_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250604112817_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250604171113_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\MPWemission\20250605123112_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\OptBIO\20250525000900_2030_minC_DD10-1\optimization_results.h5</t>
@@ -745,10 +753,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>5216476760.693393</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>5212378855.368991</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4178210203.862845</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3705197372.150028</v>
+      </c>
       <c r="N6" t="n">
         <v>4265874632.245741</v>
       </c>
@@ -784,8 +796,12 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>394182578.6361811</v>
+      </c>
+      <c r="M7" t="n">
+        <v>732971699.1191738</v>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
         <v>393669027.0485265</v>
@@ -817,10 +833,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>5216476760.693393</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>5212378855.368991</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4572392782.499026</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4438169071.269202</v>
+      </c>
       <c r="N8" t="n">
         <v>4265874632.245741</v>
       </c>
@@ -869,7 +889,9 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>138287581305.0104</v>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
@@ -909,10 +931,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>4195497.116650711</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>4195963.170609171</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2086050.525512025</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" t="n">
         <v>595460.2652924323</v>
       </c>
@@ -962,8 +988,12 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.692399696527491</v>
+      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
@@ -1011,10 +1041,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>28.25175000000013</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+        <v>28.25175000000016</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
       <c r="N12" t="n">
         <v>28.25175</v>
       </c>
@@ -1062,10 +1096,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>293.7202478549146</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+        <v>293.3313131313654</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
       <c r="N13" t="n">
         <v>293.3313131313126</v>
       </c>
@@ -1113,10 +1151,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>360.1334737474549</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>355.9465217391304</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11.09031652173217</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
       <c r="N14" t="n">
         <v>367.0368382608737</v>
       </c>
@@ -1166,8 +1208,12 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>22.32469570638175</v>
+      </c>
+      <c r="M15" t="n">
+        <v>34.21735276344447</v>
+      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -1217,8 +1263,12 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
@@ -1342,8 +1392,12 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -1393,8 +1447,12 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
@@ -1442,10 +1500,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>746.3469377839192</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+        <v>744.2782040874093</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" t="n">
         <v>744.2782040872602</v>
       </c>
@@ -1495,8 +1557,12 @@
       <c r="K22" t="n">
         <v>813</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
       <c r="N22" t="n">
         <v>813</v>
       </c>
@@ -1546,8 +1612,12 @@
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -1595,10 +1665,14 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>172.4261655881866</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+        <v>172.4261655881301</v>
+      </c>
+      <c r="L24" t="n">
+        <v>18.38785578319889</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
       <c r="N24" t="n">
         <v>172.4261655881867</v>
       </c>
@@ -1648,8 +1722,12 @@
       <c r="K25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0.8782033640659485</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -1697,10 +1775,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>253.4664634146343</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+        <v>253.4664634145097</v>
+      </c>
+      <c r="L26" t="n">
+        <v>27.03014800130236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
       <c r="N26" t="n">
         <v>253.4664634146344</v>
       </c>
@@ -1750,8 +1832,12 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
@@ -1838,8 +1924,12 @@
       <c r="K29" t="n">
         <v>157</v>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
       <c r="N29" t="n">
         <v>157</v>
       </c>
@@ -1889,8 +1979,12 @@
       <c r="K30" t="n">
         <v>218</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
       <c r="N30" t="n">
         <v>218</v>
       </c>
@@ -1940,8 +2034,12 @@
       <c r="K31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
@@ -2063,10 +2161,14 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>5044.623109964454</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+        <v>3358.080000000625</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5389.579798402184</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
       <c r="N34" t="n">
         <v>3656.881691911162</v>
       </c>
@@ -2114,10 +2216,14 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>1404.417865593718</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+        <v>1470.120398232947</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6414</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
       <c r="N35" t="n">
         <v>1432.828894956167</v>
       </c>
@@ -2165,10 +2271,14 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>186.6364645974312</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1618.796390936915</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
@@ -2218,8 +2328,12 @@
       <c r="K37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1133.955909677429</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
@@ -2267,10 +2381,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>888.2974240771143</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>494.7538811396987</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
@@ -2320,8 +2438,12 @@
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>6808.828146592633</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
@@ -2369,10 +2491,14 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>139.5668773655919</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+        <v>139.1800241643082</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1963241017880827</v>
+      </c>
       <c r="N40" t="n">
         <v>139.1800241643176</v>
       </c>
@@ -2420,10 +2546,14 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>1075.826254019793</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+        <v>1066.928204086812</v>
+      </c>
+      <c r="L41" t="n">
+        <v>25.85494422550943</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
       <c r="N41" t="n">
         <v>1066.928204087278</v>
       </c>
@@ -2473,8 +2603,12 @@
       <c r="K42" t="n">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
@@ -2524,8 +2658,12 @@
       <c r="K43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -2575,8 +2713,12 @@
       <c r="K44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
@@ -2624,10 +2766,14 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>114</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+        <v>105.896886028623</v>
+      </c>
+      <c r="L45" t="n">
+        <v>45.9381316150001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>105.8968860250001</v>
+      </c>
       <c r="N45" t="n">
         <v>105.8968860251569</v>
       </c>
@@ -2677,8 +2823,12 @@
       <c r="K46" t="n">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>56.54204846982621</v>
+      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -2728,8 +2878,12 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
@@ -2779,8 +2933,12 @@
       <c r="K48" t="n">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
@@ -2830,8 +2988,12 @@
       <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
@@ -2881,8 +3043,12 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
@@ -2932,8 +3098,12 @@
       <c r="K51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
@@ -2981,10 +3151,14 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>172.4261655884114</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+        <v>172.4261655902637</v>
+      </c>
+      <c r="L52" t="n">
+        <v>18.38785578319889</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
       <c r="N52" t="n">
         <v>172.4261655882828</v>
       </c>
@@ -3034,8 +3208,12 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
@@ -3085,8 +3263,12 @@
       <c r="K54" t="n">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
@@ -3136,8 +3318,12 @@
       <c r="K55" t="n">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
@@ -3187,8 +3373,12 @@
       <c r="K56" t="n">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
@@ -3238,8 +3428,12 @@
       <c r="K57" t="n">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
@@ -3289,8 +3483,12 @@
       <c r="K58" t="n">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
@@ -3340,8 +3538,12 @@
       <c r="K59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
@@ -3391,8 +3593,12 @@
       <c r="K60" t="n">
         <v>750</v>
       </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2500.000000000001</v>
+      </c>
       <c r="N60" t="n">
         <v>750</v>
       </c>
@@ -3442,8 +3648,12 @@
       <c r="K61" t="n">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
@@ -3493,8 +3703,12 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
@@ -3544,8 +3758,12 @@
       <c r="K63" t="n">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
@@ -3595,8 +3813,12 @@
       <c r="K64" t="n">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
@@ -3646,8 +3868,12 @@
       <c r="K65" t="n">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
@@ -3697,8 +3923,12 @@
       <c r="K66" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
@@ -3748,8 +3978,12 @@
       <c r="K67" t="n">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
@@ -3799,8 +4033,12 @@
       <c r="K68" t="n">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
@@ -3850,8 +4088,12 @@
       <c r="K69" t="n">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.927861150533981</v>
+      </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
@@ -3901,8 +4143,12 @@
       <c r="K70" t="n">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
@@ -3952,8 +4198,12 @@
       <c r="K71" t="n">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
@@ -4001,10 +4251,14 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>1075.826254019793</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+        <v>1066.928204089392</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1092.783148312321</v>
+      </c>
+      <c r="M72" t="n">
+        <v>162.4757600703234</v>
+      </c>
       <c r="N72" t="n">
         <v>1066.928204087566</v>
       </c>
@@ -4054,8 +4308,12 @@
       <c r="K73" t="n">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
@@ -4105,8 +4363,12 @@
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>751.2782040874093</v>
+      </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
@@ -4156,8 +4418,12 @@
       <c r="K75" t="n">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
@@ -4207,8 +4473,12 @@
       <c r="K76" t="n">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
@@ -4258,8 +4528,12 @@
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
@@ -4309,8 +4583,12 @@
       <c r="K78" t="n">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
       <c r="N78" t="n">
         <v>0</v>
       </c>
@@ -4360,8 +4638,12 @@
       <c r="K79" t="n">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
@@ -4411,8 +4693,12 @@
       <c r="K80" t="n">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
@@ -4462,8 +4748,12 @@
       <c r="K81" t="n">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
@@ -4513,8 +4803,12 @@
       <c r="K82" t="n">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
@@ -4564,8 +4858,12 @@
       <c r="K83" t="n">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>6.394884621840902e-13</v>
+      </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
@@ -4615,8 +4913,12 @@
       <c r="K84" t="n">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
@@ -4666,8 +4968,12 @@
       <c r="K85" t="n">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
@@ -4717,8 +5023,12 @@
       <c r="K86" t="n">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
@@ -4766,10 +5076,14 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>34.66489725000024</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+        <v>34.66489725022941</v>
+      </c>
+      <c r="L87" t="n">
+        <v>34.6648972500002</v>
+      </c>
+      <c r="M87" t="n">
+        <v>35.5130648047828</v>
+      </c>
       <c r="N87" t="n">
         <v>34.66489725003473</v>
       </c>
@@ -4819,8 +5133,12 @@
       <c r="K88" t="n">
         <v>157</v>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>157</v>
+      </c>
+      <c r="M88" t="n">
+        <v>157.0000000000212</v>
+      </c>
       <c r="N88" t="n">
         <v>157</v>
       </c>
@@ -4870,8 +5188,12 @@
       <c r="K89" t="n">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
@@ -4921,8 +5243,12 @@
       <c r="K90" t="n">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
@@ -4972,8 +5298,12 @@
       <c r="K91" t="n">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
@@ -5023,8 +5353,12 @@
       <c r="K92" t="n">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
@@ -5074,8 +5408,12 @@
       <c r="K93" t="n">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
@@ -5125,8 +5463,12 @@
       <c r="K94" t="n">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
@@ -5176,8 +5518,12 @@
       <c r="K95" t="n">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
@@ -5227,8 +5573,12 @@
       <c r="K96" t="n">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
@@ -5278,8 +5628,12 @@
       <c r="K97" t="n">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
@@ -5323,8 +5677,12 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>129.2870380582895</v>
+      </c>
+      <c r="M98" t="n">
+        <v>32.22911136728798</v>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="n">
         <v>103.3331598099383</v>
@@ -5364,8 +5722,12 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="n">
         <v>0</v>
@@ -5461,8 +5823,12 @@
       <c r="K102" t="n">
         <v>813</v>
       </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>813</v>
+      </c>
+      <c r="M102" t="n">
+        <v>813</v>
+      </c>
       <c r="N102" t="n">
         <v>813</v>
       </c>
@@ -5591,8 +5957,12 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>28.25175000000016</v>
+      </c>
+      <c r="M106" t="n">
+        <v>28.25175000000016</v>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
         <v>28.25175</v>
@@ -5624,8 +5994,12 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>293.3313131313654</v>
+      </c>
+      <c r="M107" t="n">
+        <v>293.3313131313654</v>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
         <v>293.3313131313126</v>
@@ -5657,8 +6031,12 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>355.9465217391304</v>
+      </c>
+      <c r="M108" t="n">
+        <v>367.0368382608626</v>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="n">
         <v>367.0368382608737</v>
@@ -5690,8 +6068,12 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>744.2782040874093</v>
+      </c>
+      <c r="M109" t="n">
+        <v>744.2782040874093</v>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
         <v>744.2782040872602</v>
@@ -5723,8 +6105,12 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>813</v>
+      </c>
+      <c r="M110" t="n">
+        <v>813</v>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
         <v>813</v>
@@ -5756,8 +6142,12 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>172.4261655881301</v>
+      </c>
+      <c r="M111" t="n">
+        <v>190.814021371329</v>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
         <v>172.4261655881867</v>
@@ -5789,8 +6179,12 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
         <v>0</v>
@@ -5822,8 +6216,12 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>253.4664634145097</v>
+      </c>
+      <c r="M113" t="n">
+        <v>280.496611415812</v>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
         <v>253.4664634146344</v>
@@ -5855,8 +6253,12 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>157</v>
+      </c>
+      <c r="M114" t="n">
+        <v>157</v>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
         <v>157</v>
@@ -5888,8 +6290,12 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>218</v>
+      </c>
+      <c r="M115" t="n">
+        <v>218</v>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="n">
         <v>218</v>
@@ -5921,8 +6327,12 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>3358.080000000625</v>
+      </c>
+      <c r="M116" t="n">
+        <v>8747.659798402809</v>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
         <v>3656.881691911162</v>
@@ -5954,8 +6364,12 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1470.120398232947</v>
+      </c>
+      <c r="M117" t="n">
+        <v>7884.120398232947</v>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="n">
         <v>1432.828894956167</v>
@@ -5987,8 +6401,12 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>139.1800241643082</v>
+      </c>
+      <c r="M118" t="n">
+        <v>139.1800241643082</v>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="n">
         <v>139.1800241643176</v>
@@ -6020,8 +6438,12 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1066.928204086812</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1092.783148312321</v>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
         <v>1066.928204087278</v>
@@ -6040,7 +6462,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>size_AEC_existing</t>
+          <t>size_CO2_mixer_existing</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -6054,18 +6476,18 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>22.32469570638175</v>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
-      <c r="P120" t="n">
-        <v>20.9957162706234</v>
-      </c>
+      <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="n">
-        <v>192.9097936337152</v>
+        <v>30.85490464660982</v>
       </c>
       <c r="S120" t="n">
-        <v>268.273821989079</v>
+        <v>129.5523320883239</v>
       </c>
     </row>
     <row r="121">
@@ -6085,7 +6507,9 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>129.2870380582895</v>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
@@ -6114,7 +6538,9 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1618.796390936915</v>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
@@ -6145,7 +6571,9 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1133.955909677429</v>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
@@ -6174,7 +6602,9 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>494.7538811396987</v>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
@@ -6205,7 +6635,9 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>6808.828146592633</v>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
@@ -6220,7 +6652,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer_existing</t>
+          <t>size_AEC_existing</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -6237,13 +6669,15 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
+      <c r="P126" t="n">
+        <v>20.9957162706234</v>
+      </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="n">
-        <v>30.85490464660982</v>
+        <v>192.9097936337152</v>
       </c>
       <c r="S126" t="n">
-        <v>129.5523320883239</v>
+        <v>268.273821989079</v>
       </c>
     </row>
   </sheetData>
